--- a/tools/xlsx2xml/xlsx/LocalServerConfig.xlsx
+++ b/tools/xlsx2xml/xlsx/LocalServerConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
   <si>
     <t>ID</t>
   </si>
@@ -25,6 +25,9 @@
     <t>Port</t>
   </si>
   <si>
+    <t>ThreadCount</t>
+  </si>
+  <si>
     <t>LocalServerV1</t>
   </si>
 </sst>
@@ -33,10 +36,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -55,12 +58,56 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -69,14 +116,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,10 +130,51 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -105,87 +186,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,187 +203,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,6 +394,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -405,15 +417,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -450,8 +453,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -474,10 +479,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -499,10 +502,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -511,133 +514,133 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -964,20 +967,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="23.5" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -987,16 +990,22 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>88</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/tools/xlsx2xml/xlsx/LocalServerConfig.xlsx
+++ b/tools/xlsx2xml/xlsx/LocalServerConfig.xlsx
@@ -14,21 +14,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
-  <si>
-    <t>ID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
   <si>
     <t>ServerName</t>
   </si>
   <si>
-    <t>Port</t>
-  </si>
-  <si>
-    <t>ThreadCount</t>
-  </si>
-  <si>
     <t>LocalServerV1</t>
+  </si>
+  <si>
+    <t>Server's Name</t>
+  </si>
+  <si>
+    <t>TcpPort</t>
+  </si>
+  <si>
+    <t>Tcp Port</t>
+  </si>
+  <si>
+    <t>UdpPort</t>
+  </si>
+  <si>
+    <t>Upd Broadcast Port</t>
+  </si>
+  <si>
+    <t>ServerThreadCount</t>
+  </si>
+  <si>
+    <t>Thread Count</t>
   </si>
 </sst>
 </file>
@@ -36,9 +57,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -58,7 +79,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -71,14 +115,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -87,60 +123,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,11 +137,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -170,25 +160,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,37 +224,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,145 +392,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,21 +427,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -432,6 +438,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -453,11 +468,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,18 +507,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,145 +523,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -967,20 +988,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="23.5" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -990,22 +1011,49 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
         <v>88</v>
       </c>
-      <c r="D2">
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>28888</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
         <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/tools/xlsx2xml/xlsx/LocalServerConfig.xlsx
+++ b/tools/xlsx2xml/xlsx/LocalServerConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27870" windowHeight="13065"/>
+    <workbookView windowWidth="18105" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="LocalServerConfig" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>Key</t>
   </si>
@@ -50,6 +50,15 @@
   </si>
   <si>
     <t>Thread Count</t>
+  </si>
+  <si>
+    <t>DatabaseFile</t>
+  </si>
+  <si>
+    <t>ServerDB.db</t>
+  </si>
+  <si>
+    <t>DB File Path</t>
   </si>
 </sst>
 </file>
@@ -58,9 +67,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -73,13 +82,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,8 +117,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,18 +170,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -168,48 +202,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,25 +233,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,49 +383,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,103 +413,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,15 +424,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -452,6 +452,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -468,24 +483,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,11 +509,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,10 +532,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -535,133 +544,133 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -988,13 +997,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -1056,6 +1065,17 @@
         <v>11</v>
       </c>
     </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
